--- a/5 改版后自动化网页提交/5.5/详情.xlsx
+++ b/5 改版后自动化网页提交/5.5/详情.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Hot Side Temperature (°C)</t>
   </si>
@@ -67,16 +67,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Δ Tmax (°C):</t>
+  </si>
+  <si>
     <t>--</t>
   </si>
   <si>
-    <t>27°C</t>
-  </si>
-  <si>
-    <t>50°C</t>
-  </si>
-  <si>
-    <t>Δ Tmax (°C-dry N2):</t>
+    <t>• Solid-state reliability.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>• Superior nickel diffusion barriers on elements.</t>
@@ -87,19 +85,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>• Porched configuration for enhanced leadwire strength.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>• RTV sealing available (Optional).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>• Lapped option available for multiple module applications.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Solid-state reliability.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• RTV sealing available (Optional).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Porched configuration for enhanced leadwire strength.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -431,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>24.6</v>
+        <v>20.5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>3.91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>3.94</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>20.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -517,21 +511,21 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>20.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,17 +533,17 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,12 +553,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,12 +583,12 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/5 改版后自动化网页提交/5.5/详情.xlsx
+++ b/5 改版后自动化网页提交/5.5/详情.xlsx
@@ -30,74 +30,70 @@
     <t>Imax (amps):</t>
   </si>
   <si>
+    <t>AC Resistance (ohms):</t>
+  </si>
+  <si>
+    <t>Base Ceramic Length (mm)</t>
+  </si>
+  <si>
+    <t>Base Ceramic Width (mm)</t>
+  </si>
+  <si>
+    <t>Module Height (mm)</t>
+  </si>
+  <si>
+    <t>Top Ceramic Length (mm)</t>
+  </si>
+  <si>
+    <t>Top Ceramic Width (mm)</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电器参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Δ Tmax (°C):</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Superior nickel diffusion barriers on elements.</t>
+  </si>
+  <si>
+    <t>High strength for rugged environment.</t>
+  </si>
+  <si>
     <t>Vmax (vdc):</t>
-  </si>
-  <si>
-    <t>AC Resistance (ohms):</t>
-  </si>
-  <si>
-    <t>Base Ceramic Length (mm)</t>
-  </si>
-  <si>
-    <t>Base Ceramic Width (mm)</t>
-  </si>
-  <si>
-    <t>Module Height (mm)</t>
-  </si>
-  <si>
-    <t>Top Ceramic Length (mm)</t>
-  </si>
-  <si>
-    <t>Top Ceramic Width (mm)</t>
-  </si>
-  <si>
-    <t>尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电器参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Δ Tmax (°C):</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>• Solid-state reliability.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Superior nickel diffusion barriers on elements.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• High strength for rugged environment.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Porched configuration for enhanced leadwire strength.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• RTV sealing available (Optional).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Lapped option available for multiple module applications.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Built with high temperature solder with the ability to withstand higher assembly processing temperatures for short periods of time (&lt;160C).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Porched configuration for enhanced leadwire strength.</t>
+  </si>
+  <si>
+    <t>RTV sealing available (Optional).</t>
+  </si>
+  <si>
+    <t>Lapped option available for multiple module applications.</t>
+  </si>
+  <si>
+    <t>Built with high temperature solder with the ability to withstand higher assembly processing temperatures for short periods of time (&lt;160C).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid-state reliability.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,94 +434,94 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>20.5</v>
+        <v>24.4</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>3.94</v>
+        <v>3.53</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,17 +529,17 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,17 +549,17 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>2.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>2.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,17 +574,17 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
